--- a/src/render-template/店铺数据统计-模板.xlsx
+++ b/src/render-template/店铺数据统计-模板.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,28 +446,62 @@
         <v>40</v>
       </c>
       <c r="E2" s="1">
-        <f>=C2*D2</f>
+        <f>C2*D2</f>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <f>=INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A2,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
+        <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A2,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>=E2-F2</f>
+        <f>E2-F2</f>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>=G2/E2</f>
+        <f>G2/E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B3" t="str">
+        <v>蓝莓蛋糕</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3*D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A3,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f>E3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3/E3</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -509,7 +543,8 @@
         <v>200</v>
       </c>
       <c r="F2" s="1">
-        <f>=C2*E2</f>
+        <f>C2*E2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -529,12 +564,34 @@
         <v>600</v>
       </c>
       <c r="F3" s="1">
-        <f>=C3*E3</f>
+        <f>C3*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B4" t="str">
+        <v>蛋糕盒</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="str">
+        <v>箱</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <f>C4*E4</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -592,16 +649,20 @@
         <v>2026-01</v>
       </c>
       <c r="B2" s="1">
-        <f>=SUMPRODUCT((TEXT(销售明细!$A$2:$A$2,"YYYY-MM")=A2)*销售明细!$E$2:$E$2)</f>
+        <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$3,"YYYY-MM")=A2)*销售明细!$E$2:$E$3)</f>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <f>=SUMPRODUCT((TEXT(采购明细!$A$2:$A$3,"YYYY-MM")=A2)*采购明细!$F$2:$F$3)</f>
+        <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$4,"YYYY-MM")=A2)*采购明细!$F$2:$F$4)</f>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f>=B2-C2</f>
+        <f>B2-C2</f>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>=D2/B2</f>
+        <f>D2/B2</f>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2500</v>
@@ -619,13 +680,16 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <f>=F2+G2+H2+I2+J2</f>
+        <f>F2+G2+H2+I2+J2</f>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <f>=D2-K2</f>
+        <f>D2-K2</f>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <f>=L2/B2</f>
+        <f>L2/B2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/render-template/店铺数据统计-模板.xlsx
+++ b/src/render-template/店铺数据统计-模板.xlsx
@@ -34,9 +34,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="60" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -69,7 +68,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="60" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -435,8 +434,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>46051</v>
+      <c r="A2" s="1" t="str">
+        <v>2026-01-29</v>
       </c>
       <c r="B2" t="str">
         <v>草莓蛋糕</v>
@@ -449,15 +448,15 @@
       </c>
       <c r="E2" s="2">
         <f>C2*D2</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="F2" s="2">
-        <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A2,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
-        <v>0</v>
+        <f>SUMIF(采购明细!$A$2:$A$6, A2, 采购明细!$F$2:$F$6)</f>
+        <v>1100</v>
       </c>
       <c r="G2" s="2">
         <f>E2-F2</f>
-        <v>0</v>
+        <v>-620</v>
       </c>
       <c r="H2" s="3">
         <f>G2/E2</f>
@@ -465,8 +464,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>46051</v>
+      <c r="A3" s="1" t="str">
+        <v>2026-01-28</v>
       </c>
       <c r="B3" t="str">
         <v>蓝莓蛋糕</v>
@@ -479,15 +478,15 @@
       </c>
       <c r="E3" s="2">
         <f>C3*D3</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F3" s="2">
-        <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A3,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
-        <v>0</v>
+        <f>SUMIF(采购明细!$A$2:$A$6, A3, 采购明细!$F$2:$F$6)</f>
+        <v>1100</v>
       </c>
       <c r="G3" s="2">
         <f>E3-F3</f>
-        <v>0</v>
+        <v>-780</v>
       </c>
       <c r="H3" s="3">
         <f>G3/E3</f>
@@ -495,8 +494,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>46048</v>
+      <c r="A4" s="1" t="str">
+        <v>2026-01-25</v>
       </c>
       <c r="B4" t="str">
         <v>芭乐蛋糕</v>
@@ -509,15 +508,15 @@
       </c>
       <c r="E4" s="2">
         <f>C4*D4</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="F4" s="2">
-        <f>INDEX(月度利润!$C$2:$C$2, MATCH(TEXT(A4,"YYYY-MM"), 月度利润!$A$2:$A$2, 0))</f>
+        <f>SUMIF(采购明细!$A$2:$A$6, A4, 采购明细!$F$2:$F$6)</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>E4-F4</f>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="H4" s="3">
         <f>G4/E4</f>
@@ -559,8 +558,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>46051</v>
+      <c r="A2" s="1" t="str">
+        <v>2026-01-29</v>
       </c>
       <c r="B2" t="str">
         <v>鸡蛋</v>
@@ -576,12 +575,12 @@
       </c>
       <c r="F2" s="2">
         <f>C2*E2</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>46051</v>
+      <c r="A3" s="1" t="str">
+        <v>2026-01-28</v>
       </c>
       <c r="B3" t="str">
         <v>奶油</v>
@@ -597,12 +596,12 @@
       </c>
       <c r="F3" s="2">
         <f>C3*E3</f>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>46051</v>
+      <c r="A4" s="1" t="str">
+        <v>2026-01-29</v>
       </c>
       <c r="B4" t="str">
         <v>蛋糕盒</v>
@@ -618,12 +617,12 @@
       </c>
       <c r="F4" s="2">
         <f>C4*E4</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>46047</v>
+      <c r="A5" s="1" t="str">
+        <v>2026-01-25</v>
       </c>
       <c r="B5" t="str">
         <v>蛋糕盒</v>
@@ -639,12 +638,12 @@
       </c>
       <c r="F5" s="2">
         <f>C5*E5</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>46048</v>
+      <c r="A6" s="1" t="str">
+        <v>2026-01-28</v>
       </c>
       <c r="B6" t="str">
         <v>叉子</v>
@@ -660,7 +659,7 @@
       </c>
       <c r="F6" s="2">
         <f>C6*E6</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -719,20 +718,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>2026-01</v>
       </c>
       <c r="B2" s="2">
         <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$3,"YYYY-MM")=A2)*销售明细!$E$2:$E$3)</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C2" s="2">
         <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$4,"YYYY-MM")=A2)*采购明细!$F$2:$F$4)</f>
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="D2" s="2">
         <f>B2-C2</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="E2" s="3">
         <f>D2/B2</f>
@@ -755,11 +754,11 @@
       </c>
       <c r="K2" s="2">
         <f>F2+G2+H2+I2+J2</f>
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="L2" s="2">
         <f>D2-K2</f>
-        <v>0</v>
+        <v>-13250</v>
       </c>
       <c r="M2" s="3">
         <f>L2/B2</f>

--- a/src/render-template/店铺数据统计-模板.xlsx
+++ b/src/render-template/店铺数据统计-模板.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -423,15 +423,6 @@
       <c r="E1" t="str">
         <v>销售额</v>
       </c>
-      <c r="F1" t="str">
-        <v>材料成本</v>
-      </c>
-      <c r="G1" t="str">
-        <v>毛利</v>
-      </c>
-      <c r="H1" t="str">
-        <v>毛利率%</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -450,18 +441,6 @@
         <f>C2*D2</f>
         <v>480</v>
       </c>
-      <c r="F2" s="2">
-        <f>SUMIF(采购明细!$A$2:$A$6, A2, 采购明细!$F$2:$F$6)</f>
-        <v>1100</v>
-      </c>
-      <c r="G2" s="2">
-        <f>E2-F2</f>
-        <v>-620</v>
-      </c>
-      <c r="H2" s="3">
-        <f>G2/E2</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -480,18 +459,6 @@
         <f>C3*D3</f>
         <v>320</v>
       </c>
-      <c r="F3" s="2">
-        <f>SUMIF(采购明细!$A$2:$A$6, A3, 采购明细!$F$2:$F$6)</f>
-        <v>1100</v>
-      </c>
-      <c r="G3" s="2">
-        <f>E3-F3</f>
-        <v>-780</v>
-      </c>
-      <c r="H3" s="3">
-        <f>G3/E3</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -510,22 +477,10 @@
         <f>C4*D4</f>
         <v>460</v>
       </c>
-      <c r="F4" s="2">
-        <f>SUMIF(采购明细!$A$2:$A$6, A4, 采购明细!$F$2:$F$6)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <f>E4-F4</f>
-        <v>460</v>
-      </c>
-      <c r="H4" s="3">
-        <f>G4/E4</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/render-template/店铺数据统计-模板.xlsx
+++ b/src/render-template/店铺数据统计-模板.xlsx
@@ -677,16 +677,16 @@
         <v>2026-01</v>
       </c>
       <c r="B2" s="2">
-        <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$3,"YYYY-MM")=A2)*销售明细!$E$2:$E$3)</f>
-        <v>800</v>
+        <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$4,"YYYY-MM")=A2)*销售明细!$E$2:$E$4)</f>
+        <v>1260</v>
       </c>
       <c r="C2" s="2">
-        <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$4,"YYYY-MM")=A2)*采购明细!$F$2:$F$4)</f>
-        <v>1050</v>
+        <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$6,"YYYY-MM")=A2)*采购明细!$F$2:$F$6)</f>
+        <v>1350</v>
       </c>
       <c r="D2" s="2">
         <f>B2-C2</f>
-        <v>-250</v>
+        <v>-90</v>
       </c>
       <c r="E2" s="3">
         <f>D2/B2</f>
@@ -713,7 +713,7 @@
       </c>
       <c r="L2" s="2">
         <f>D2-K2</f>
-        <v>-13250</v>
+        <v>-13090</v>
       </c>
       <c r="M2" s="3">
         <f>L2/B2</f>

--- a/src/render-template/店铺数据统计-模板.xlsx
+++ b/src/render-template/店铺数据统计-模板.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -478,16 +478,34 @@
         <v>460</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>2026-01-25</v>
+      </c>
+      <c r="B5" t="str">
+        <v>荔枝蛋糕</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2">
+        <f>C5*D5</f>
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,9 +635,30 @@
         <v>50</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>2026-01-28</v>
+      </c>
+      <c r="B7" t="str">
+        <v>叉子</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <v>箱</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <f>C7*E7</f>
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -678,15 +717,15 @@
       </c>
       <c r="B2" s="2">
         <f>SUMPRODUCT((TEXT(销售明细!$A$2:$A$10000,"YYYY-MM")=A2)*销售明细!$E$2:$E$10000)</f>
-        <v>1260</v>
+        <v>1720</v>
       </c>
       <c r="C2" s="2">
         <f>SUMPRODUCT((TEXT(采购明细!$A$2:$A$10000,"YYYY-MM")=A2)*采购明细!$F$2:$F$10000)</f>
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="D2" s="2">
         <f>B2-C2</f>
-        <v>-90</v>
+        <v>320</v>
       </c>
       <c r="E2" s="3">
         <f>D2/B2</f>
@@ -713,7 +752,7 @@
       </c>
       <c r="L2" s="2">
         <f>D2-K2</f>
-        <v>-13090</v>
+        <v>-12680</v>
       </c>
       <c r="M2" s="3">
         <f>L2/B2</f>
